--- a/Mifos Automation Excels/Client/4217-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4217-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -233,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -412,6 +417,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -459,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,9 +500,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,6 +552,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1006,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,12 +1068,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,17 +1114,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12">
@@ -1106,9 +1150,10 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1144,14 +1189,15 @@
       <c r="M3" s="11">
         <v>0</v>
       </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>987.72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1187,14 +1233,15 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1230,14 +1277,15 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1273,14 +1321,15 @@
       <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1316,14 +1365,15 @@
       <c r="M7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1359,14 +1409,15 @@
       <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1402,14 +1453,15 @@
       <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1445,14 +1497,15 @@
       <c r="M10" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1488,14 +1541,15 @@
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1531,14 +1585,15 @@
       <c r="M12" s="11">
         <v>0</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1574,14 +1629,15 @@
       <c r="M13" s="11">
         <v>0</v>
       </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1617,10 +1673,11 @@
       <c r="M14" s="11">
         <v>0</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
         <v>925.76</v>
       </c>
     </row>
@@ -1830,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4217-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4217-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -238,11 +233,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,14 +257,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -360,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -400,11 +387,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -467,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,26 +484,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,23 +519,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,7 +727,7 @@
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -917,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +884,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -954,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>10000</v>
       </c>
@@ -972,7 +922,7 @@
         <v>1579.27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>690.68</v>
       </c>
@@ -992,7 +942,7 @@
         <v>196.17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>100</v>
       </c>
@@ -1012,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0</v>
       </c>
@@ -1031,15 +981,6 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1894,66 +1835,66 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>42005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>63</v>
       </c>
     </row>
